--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\An III - Semestrul 2\VVSS\Teme\LasAmazonas-INVENTORY\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583A022A-0BAC-4983-986C-6292CC34D67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58371991-FE1D-44FE-85CC-D10EF17B8097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -224,9 +224,6 @@
     <t>C01</t>
   </si>
   <si>
-    <t>AddPartController,AddProductController</t>
-  </si>
-  <si>
     <t>Campuri declarate dar neflolosite</t>
   </si>
   <si>
@@ -341,6 +338,9 @@
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours): 0.5h</t>
+  </si>
+  <si>
+    <t>AddPartController 27, AddProductController 31</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -605,6 +605,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -649,29 +664,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,8 +1008,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E7"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,19 +1029,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -1073,10 +1065,10 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="36"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
@@ -1091,10 +1083,10 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="38"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
@@ -1110,19 +1102,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="32">
         <v>45000</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1343,8 +1335,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,19 +1355,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -1399,10 +1391,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="39"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
@@ -1417,10 +1409,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="41"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
@@ -1436,19 +1428,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="32">
         <v>45000</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1505,10 +1497,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="42"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="26" t="s">
         <v>53</v>
       </c>
@@ -1660,8 +1652,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1681,19 +1673,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -1717,10 +1709,10 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="42"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
@@ -1735,10 +1727,10 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="44"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
@@ -1754,19 +1746,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="32">
         <v>45000</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1782,18 +1774,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="45" t="s">
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1801,14 +1793,14 @@
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="E11" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1819,11 +1811,11 @@
       <c r="C12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1832,13 +1824,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2000,7 +1992,7 @@
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2024,7 +2016,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -2046,19 +2038,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -2082,8 +2074,8 @@
       <c r="C4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
@@ -2098,10 +2090,10 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="33"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
@@ -2117,10 +2109,10 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="32">
         <v>45000</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2145,16 +2137,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2163,16 +2155,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2180,17 +2172,17 @@
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>86</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2198,17 +2190,17 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="E13" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="F13" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
@@ -2216,17 +2208,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="47" t="s">
+      <c r="C14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -2234,17 +2226,17 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="E15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>82</v>
+      <c r="F15" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2398,11 +2390,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
+      <c r="C32" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>
